--- a/Statistical analyses/Partial eta-squared.xlsx
+++ b/Statistical analyses/Partial eta-squared.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial-enzyme-activity-in-leaf-litter\Statistical analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DD91DC-08D2-4CD8-87AD-43BCDE138D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B986B683-EBF0-4EC1-8F12-7C0971E000DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,15 +689,11 @@
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.16589599999999999</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5">
         <v>0.58411199999999996</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.12819700000000001</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -711,9 +707,7 @@
       <c r="C4" s="5">
         <v>0.56182100000000001</v>
       </c>
-      <c r="D4" s="5">
-        <v>9.0468000000000007E-2</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -730,9 +724,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5">
-        <v>7.3123999999999995E-2</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -750,9 +742,7 @@
       <c r="F6" s="5">
         <v>0.29460399999999998</v>
       </c>
-      <c r="G6" s="5">
-        <v>7.4728000000000003E-2</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">

--- a/Statistical analyses/Partial eta-squared.xlsx
+++ b/Statistical analyses/Partial eta-squared.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial-enzyme-activity-in-leaf-litter\Statistical analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B986B683-EBF0-4EC1-8F12-7C0971E000DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB575522-379D-4542-BE62-F8652402B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Enzyme</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>amide</t>
+  </si>
+  <si>
+    <t>carboEster1</t>
+  </si>
+  <si>
+    <t>carboEster2</t>
+  </si>
+  <si>
+    <t>amide1</t>
+  </si>
+  <si>
+    <t>amide2</t>
   </si>
 </sst>
 </file>
@@ -623,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CD872B-AF74-4726-AF48-771CC33292B9}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,11 +727,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5">
-        <v>0.78331499999999998</v>
+        <v>0.54624799999999996</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -729,36 +741,98 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.21379300000000001</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5">
-        <v>0.63507400000000003</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.20715700000000001</v>
+      </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>0.29460399999999998</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>0.14499400000000001</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
-        <v>0.21581700000000001</v>
-      </c>
+      <c r="C7" s="5">
+        <v>0.78331499999999998</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.21379300000000001</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.63507400000000003</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>0.29460399999999998</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>0.21581700000000001</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.15523300000000001</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>0.197297</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>0.21951499999999999</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Statistical analyses/Partial eta-squared.xlsx
+++ b/Statistical analyses/Partial eta-squared.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial-enzyme-activity-in-leaf-litter\Statistical analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB575522-379D-4542-BE62-F8652402B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF61424C-1B9A-4E2F-9C5E-E2BB40E8F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vmax" sheetId="1" r:id="rId1"/>
     <sheet name="litterChemistry" sheetId="2" r:id="rId2"/>
+    <sheet name="CAZyme domains" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Enzyme</t>
   </si>
@@ -107,6 +108,51 @@
   </si>
   <si>
     <t>amide2</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>Hemicellulose</t>
+  </si>
+  <si>
+    <t>Lignin</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>Oligosaccharides</t>
+  </si>
+  <si>
+    <t>Cell_wall</t>
+  </si>
+  <si>
+    <t>Inulin</t>
+  </si>
+  <si>
+    <t>Starch</t>
+  </si>
+  <si>
+    <t>Trehalose</t>
+  </si>
+  <si>
+    <t>Cellulose</t>
+  </si>
+  <si>
+    <t>Pectin</t>
+  </si>
+  <si>
+    <t>Glycogen</t>
+  </si>
+  <si>
+    <t>Peptidoglycan</t>
+  </si>
+  <si>
+    <t>Chitin</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -637,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CD872B-AF74-4726-AF48-771CC33292B9}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -836,4 +882,301 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1311363E-9EB6-402B-9658-3E887F9E75BE}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.40225699999999998</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.49596699999999999</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <v>0.177708</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.16888800000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.65784600000000004</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.320604</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.22200700000000001</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <v>0.157971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.285883</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.22226099999999999</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <v>0.152665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.15423000000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.22456799999999999</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>0.26662999999999998</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.42253600000000002</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.302124</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <v>0.204873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.40407500000000002</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.12517300000000001</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>0.49829600000000002</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.28492200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>9.7268999999999994E-2</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.28011000000000003</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.14885799999999999</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.64067300000000005</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.15742100000000001</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>0.29388500000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.353462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.19850799999999999</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>0.16789699999999999</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>0.220195</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.207871</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>0.235899</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.217589</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.180948</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.31795899999999999</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.43761800000000001</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>0.15343399999999999</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <v>0.18526899999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>